--- a/output/Pack_Excel_Pro/Modulo_3_Visualizacion/08_Comparativa_Anual_Ventas_Gastos.xlsx
+++ b/output/Pack_Excel_Pro/Modulo_3_Visualizacion/08_Comparativa_Anual_Ventas_Gastos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isca/Code/projects/excel-course-for-accountants/output/Pack_Excel_Pro/Modulo_3_Visualizacion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD5163-25EE-7749-9419-60CE7C2A7C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estado_Resultados" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Grafico_Gastos" sheetId="3" r:id="rId3"/>
     <sheet name="Instrucciones" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +218,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,19 +255,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -280,13 +303,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -303,9 +328,10 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Estado_Resultados'!$A$5:$A$6</c:f>
+              <c:f>Estado_Resultados!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -319,9 +345,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estado_Resultados'!$B$5:$B$6</c:f>
+              <c:f>Estado_Resultados!$B$5:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>85.2</c:v>
@@ -332,6 +358,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC07-8045-B589-295AC2235489}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -349,9 +380,10 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Estado_Resultados'!$A$5:$A$6</c:f>
+              <c:f>Estado_Resultados!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -365,20 +397,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estado_Resultados'!$C$5:$C$6</c:f>
+              <c:f>Estado_Resultados!$C$5:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC07-8045-B589-295AC2235489}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -388,6 +433,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -405,20 +451,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -437,9 +488,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="$#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="\$#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -448,9 +501,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -461,9 +516,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -481,13 +545,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -504,9 +570,10 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Estado_Resultados'!$A$8:$A$10</c:f>
+              <c:f>Estado_Resultados!$A$8:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -523,9 +590,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estado_Resultados'!$B$8:$B$10</c:f>
+              <c:f>Estado_Resultados!$B$8:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42.5</c:v>
@@ -539,6 +606,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DA2-B947-B122-7AF733F9B01A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -556,9 +628,10 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Estado_Resultados'!$A$8:$A$10</c:f>
+              <c:f>Estado_Resultados!$A$8:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -575,9 +648,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Estado_Resultados'!$C$8:$C$10</c:f>
+              <c:f>Estado_Resultados!$C$8:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>44.9</c:v>
@@ -586,12 +659,25 @@
                   <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.9</c:v>
+                  <c:v>16.899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DA2-B947-B122-7AF733F9B01A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
@@ -601,6 +687,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -618,20 +705,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -650,9 +742,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="$#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="\$#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -661,9 +755,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -690,7 +786,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -725,7 +827,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -744,9 +852,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -784,7 +892,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -818,6 +926,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -852,9 +961,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1027,183 +1137,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>85.2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>91.7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>6.5</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.07629107981220656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="5">
+        <v>7.6291079812206564E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3.8</v>
       </c>
-      <c r="C6" s="5">
-        <v>4.1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.07894736842105259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.8947368421052586E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>89</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>95.8</v>
       </c>
-      <c r="D7" s="8">
-        <v>6.799999999999997</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.07640449438202244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="7">
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7.6404494382022445E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>42.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44.9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2.399999999999999</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.05647058823529408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="5">
+        <v>5.6470588235294078E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>18.3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>19.2</v>
       </c>
-      <c r="D9" s="5">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.04918032786885238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="4">
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.9180327868852382E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>15.7</v>
       </c>
-      <c r="C10" s="5">
-        <v>16.9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.07643312101910824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.1999999999999991</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7.6433121019108236E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>76.5</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>81</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>4.5</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.05882352941176471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="8">
+        <v>5.8823529411764712E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>12.5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>14.8</v>
       </c>
-      <c r="D12" s="11">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.1840000000000001</v>
+      <c r="D12" s="10">
+        <v>2.3000000000000012</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.18400000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -1215,12 +1327,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1228,12 +1340,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1241,98 +1353,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
